--- a/contratos/contratos-5-2010.xlsx
+++ b/contratos/contratos-5-2010.xlsx
@@ -559,7 +559,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>JUSID NICOLAS</t>
@@ -628,7 +628,7 @@
     <t>IGLESIAS JOSE FABIAN</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>RODE PABLO DANIEL</t>
@@ -652,13 +652,13 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RETAMAR JOSE LUIS</t>
@@ -1045,502 +1045,502 @@
     <t>42</t>
   </si>
   <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>25.000,50</t>
-  </si>
-  <si>
-    <t>34,50</t>
-  </si>
-  <si>
-    <t>15.683,00</t>
-  </si>
-  <si>
-    <t>140,94</t>
-  </si>
-  <si>
-    <t>1.473,00</t>
-  </si>
-  <si>
-    <t>313,49</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>1.077,00</t>
-  </si>
-  <si>
-    <t>17.230,60</t>
-  </si>
-  <si>
-    <t>1.999,92</t>
-  </si>
-  <si>
-    <t>19,00</t>
-  </si>
-  <si>
-    <t>13.025,44</t>
-  </si>
-  <si>
-    <t>30.420,20</t>
-  </si>
-  <si>
-    <t>90.036,78</t>
-  </si>
-  <si>
-    <t>20.340,00</t>
-  </si>
-  <si>
-    <t>1.299,94</t>
-  </si>
-  <si>
-    <t>714,00</t>
-  </si>
-  <si>
-    <t>9.225,19</t>
-  </si>
-  <si>
-    <t>5.849,82</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>6.614,85</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>1.480,00</t>
-  </si>
-  <si>
-    <t>10,50</t>
-  </si>
-  <si>
-    <t>115,00</t>
-  </si>
-  <si>
-    <t>36,00</t>
-  </si>
-  <si>
-    <t>6.448,87</t>
-  </si>
-  <si>
-    <t>1.490,75</t>
-  </si>
-  <si>
-    <t>1.477,09</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>1.192,90</t>
-  </si>
-  <si>
-    <t>42.116,24</t>
-  </si>
-  <si>
-    <t>52,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>108,00</t>
-  </si>
-  <si>
-    <t>15.900,00</t>
-  </si>
-  <si>
-    <t>798,36</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>1.291,11</t>
-  </si>
-  <si>
-    <t>270,92</t>
-  </si>
-  <si>
-    <t>23.822,32</t>
-  </si>
-  <si>
-    <t>722,00</t>
-  </si>
-  <si>
-    <t>243,18</t>
-  </si>
-  <si>
-    <t>1.307,54</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>6.761,93</t>
-  </si>
-  <si>
-    <t>27.940,46</t>
-  </si>
-  <si>
-    <t>14.553,44</t>
-  </si>
-  <si>
-    <t>481,00</t>
-  </si>
-  <si>
-    <t>57,85</t>
-  </si>
-  <si>
-    <t>3.107,40</t>
-  </si>
-  <si>
-    <t>547,50</t>
-  </si>
-  <si>
-    <t>52,50</t>
-  </si>
-  <si>
-    <t>14,06</t>
-  </si>
-  <si>
-    <t>24,20</t>
-  </si>
-  <si>
-    <t>4.970,10</t>
-  </si>
-  <si>
-    <t>610,00</t>
-  </si>
-  <si>
-    <t>4,20</t>
-  </si>
-  <si>
-    <t>936,02</t>
-  </si>
-  <si>
-    <t>1.268,00</t>
-  </si>
-  <si>
-    <t>356,00</t>
-  </si>
-  <si>
-    <t>2.417,28</t>
-  </si>
-  <si>
-    <t>193,05</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>189,01</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>2.367,83</t>
-  </si>
-  <si>
-    <t>992,20</t>
-  </si>
-  <si>
-    <t>875,00</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>11.240,20</t>
-  </si>
-  <si>
-    <t>11.451,24</t>
-  </si>
-  <si>
-    <t>11.043,00</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>2.361,10</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>502,65</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>959,00</t>
-  </si>
-  <si>
-    <t>446,40</t>
-  </si>
-  <si>
-    <t>24.444,04</t>
-  </si>
-  <si>
-    <t>0,28</t>
-  </si>
-  <si>
-    <t>2.110,00</t>
-  </si>
-  <si>
-    <t>0,29</t>
-  </si>
-  <si>
-    <t>95.670,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>0,16</t>
-  </si>
-  <si>
-    <t>0,21</t>
-  </si>
-  <si>
-    <t>1.811,00</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>11,50</t>
-  </si>
-  <si>
-    <t>13,86</t>
-  </si>
-  <si>
-    <t>40,25</t>
-  </si>
-  <si>
-    <t>2.964,30</t>
-  </si>
-  <si>
-    <t>105,73</t>
-  </si>
-  <si>
-    <t>3.177,23</t>
-  </si>
-  <si>
-    <t>9.780,00</t>
-  </si>
-  <si>
-    <t>2.838,87</t>
-  </si>
-  <si>
-    <t>146,00</t>
-  </si>
-  <si>
-    <t>24,00</t>
-  </si>
-  <si>
-    <t>111,66</t>
-  </si>
-  <si>
-    <t>69,00</t>
-  </si>
-  <si>
-    <t>231,00</t>
-  </si>
-  <si>
-    <t>338,80</t>
-  </si>
-  <si>
-    <t>62,00</t>
-  </si>
-  <si>
-    <t>60,50</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>2.950,30</t>
-  </si>
-  <si>
-    <t>958,00</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>106,04</t>
-  </si>
-  <si>
-    <t>66,00</t>
-  </si>
-  <si>
-    <t>671,75</t>
-  </si>
-  <si>
-    <t>657,70</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>275,53</t>
-  </si>
-  <si>
-    <t>1.330,42</t>
-  </si>
-  <si>
-    <t>884,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>278,46</t>
-  </si>
-  <si>
-    <t>1.388,00</t>
-  </si>
-  <si>
-    <t>3.553,68</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>2.248,90</t>
-  </si>
-  <si>
-    <t>476,00</t>
-  </si>
-  <si>
-    <t>55,00</t>
-  </si>
-  <si>
-    <t>238,00</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>1.447,50</t>
-  </si>
-  <si>
-    <t>4.293,92</t>
-  </si>
-  <si>
-    <t>1.311,00</t>
-  </si>
-  <si>
-    <t>907,00</t>
-  </si>
-  <si>
-    <t>374,21</t>
-  </si>
-  <si>
-    <t>4.915,00</t>
-  </si>
-  <si>
-    <t>86,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>0,50</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>5.423,83</t>
-  </si>
-  <si>
-    <t>11,55</t>
-  </si>
-  <si>
-    <t>223,45</t>
-  </si>
-  <si>
-    <t>691,36</t>
-  </si>
-  <si>
-    <t>524,54</t>
-  </si>
-  <si>
-    <t>484,80</t>
-  </si>
-  <si>
-    <t>43,50</t>
-  </si>
-  <si>
-    <t>31,90</t>
-  </si>
-  <si>
-    <t>916,00</t>
-  </si>
-  <si>
-    <t>12.365,70</t>
-  </si>
-  <si>
-    <t>2.482,70</t>
-  </si>
-  <si>
-    <t>1.150,00</t>
-  </si>
-  <si>
-    <t>40.520,00</t>
-  </si>
-  <si>
-    <t>319.699,35</t>
-  </si>
-  <si>
-    <t>216.763,04</t>
-  </si>
-  <si>
-    <t>41.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>8.750,00</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>2.082,49</t>
-  </si>
-  <si>
-    <t>602,96</t>
-  </si>
-  <si>
-    <t>466,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>25000.50</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>15683.00</t>
+  </si>
+  <si>
+    <t>140.94</t>
+  </si>
+  <si>
+    <t>1473.00</t>
+  </si>
+  <si>
+    <t>313.49</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>1077.00</t>
+  </si>
+  <si>
+    <t>17230.60</t>
+  </si>
+  <si>
+    <t>1999.92</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>13025.44</t>
+  </si>
+  <si>
+    <t>30420.20</t>
+  </si>
+  <si>
+    <t>90036.78</t>
+  </si>
+  <si>
+    <t>20340.00</t>
+  </si>
+  <si>
+    <t>1299.94</t>
+  </si>
+  <si>
+    <t>714.00</t>
+  </si>
+  <si>
+    <t>9225.19</t>
+  </si>
+  <si>
+    <t>5849.82</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>6614.85</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1480.00</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>6448.87</t>
+  </si>
+  <si>
+    <t>1490.75</t>
+  </si>
+  <si>
+    <t>1477.09</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>1192.90</t>
+  </si>
+  <si>
+    <t>42116.24</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>15900.00</t>
+  </si>
+  <si>
+    <t>798.36</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>1291.11</t>
+  </si>
+  <si>
+    <t>270.92</t>
+  </si>
+  <si>
+    <t>23822.32</t>
+  </si>
+  <si>
+    <t>722.00</t>
+  </si>
+  <si>
+    <t>243.18</t>
+  </si>
+  <si>
+    <t>1307.54</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>6761.93</t>
+  </si>
+  <si>
+    <t>27940.46</t>
+  </si>
+  <si>
+    <t>14553.44</t>
+  </si>
+  <si>
+    <t>481.00</t>
+  </si>
+  <si>
+    <t>57.85</t>
+  </si>
+  <si>
+    <t>3107.40</t>
+  </si>
+  <si>
+    <t>547.50</t>
+  </si>
+  <si>
+    <t>52.50</t>
+  </si>
+  <si>
+    <t>14.06</t>
+  </si>
+  <si>
+    <t>24.20</t>
+  </si>
+  <si>
+    <t>4970.10</t>
+  </si>
+  <si>
+    <t>610.00</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>936.02</t>
+  </si>
+  <si>
+    <t>1268.00</t>
+  </si>
+  <si>
+    <t>356.00</t>
+  </si>
+  <si>
+    <t>2417.28</t>
+  </si>
+  <si>
+    <t>193.05</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>189.01</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>2367.83</t>
+  </si>
+  <si>
+    <t>992.20</t>
+  </si>
+  <si>
+    <t>875.00</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>11240.20</t>
+  </si>
+  <si>
+    <t>11451.24</t>
+  </si>
+  <si>
+    <t>11043.00</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>2361.10</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>502.65</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>959.00</t>
+  </si>
+  <si>
+    <t>446.40</t>
+  </si>
+  <si>
+    <t>24444.04</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>2110.00</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>95670.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>1811.00</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>13.86</t>
+  </si>
+  <si>
+    <t>40.25</t>
+  </si>
+  <si>
+    <t>2964.30</t>
+  </si>
+  <si>
+    <t>105.73</t>
+  </si>
+  <si>
+    <t>3177.23</t>
+  </si>
+  <si>
+    <t>9780.00</t>
+  </si>
+  <si>
+    <t>2838.87</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>111.66</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>231.00</t>
+  </si>
+  <si>
+    <t>338.80</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>60.50</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>2950.30</t>
+  </si>
+  <si>
+    <t>958.00</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>106.04</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>671.75</t>
+  </si>
+  <si>
+    <t>657.70</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>275.53</t>
+  </si>
+  <si>
+    <t>1330.42</t>
+  </si>
+  <si>
+    <t>884.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>278.46</t>
+  </si>
+  <si>
+    <t>1388.00</t>
+  </si>
+  <si>
+    <t>3553.68</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>2248.90</t>
+  </si>
+  <si>
+    <t>476.00</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>238.00</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>1447.50</t>
+  </si>
+  <si>
+    <t>4293.92</t>
+  </si>
+  <si>
+    <t>1311.00</t>
+  </si>
+  <si>
+    <t>907.00</t>
+  </si>
+  <si>
+    <t>374.21</t>
+  </si>
+  <si>
+    <t>4915.00</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>5423.83</t>
+  </si>
+  <si>
+    <t>11.55</t>
+  </si>
+  <si>
+    <t>223.45</t>
+  </si>
+  <si>
+    <t>691.36</t>
+  </si>
+  <si>
+    <t>524.54</t>
+  </si>
+  <si>
+    <t>484.80</t>
+  </si>
+  <si>
+    <t>43.50</t>
+  </si>
+  <si>
+    <t>31.90</t>
+  </si>
+  <si>
+    <t>916.00</t>
+  </si>
+  <si>
+    <t>12365.70</t>
+  </si>
+  <si>
+    <t>2482.70</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>40520.00</t>
+  </si>
+  <si>
+    <t>319699.35</t>
+  </si>
+  <si>
+    <t>216763.04</t>
+  </si>
+  <si>
+    <t>41000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>8750.00</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>2082.49</t>
+  </si>
+  <si>
+    <t>602.96</t>
+  </si>
+  <si>
+    <t>466.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
   </si>
 </sst>
 </file>
